--- a/data/trans_dic/P1417-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1417-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03593970945333045</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06793177689285669</v>
+        <v>0.0679317768928567</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01610553520153522</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002580675109550767</v>
+        <v>0.002464241795908245</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002233985940605341</v>
+        <v>0.002201553074139044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006280081489912885</v>
+        <v>0.007391679344263952</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02477130153918213</v>
+        <v>0.02541112935755927</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01623100594541601</v>
+        <v>0.01630217879268542</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02803212933619643</v>
+        <v>0.02748393691544732</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02560316332977688</v>
+        <v>0.02496826415315704</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05406693300529047</v>
+        <v>0.05505096702480995</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01164987849372367</v>
+        <v>0.01150013087027617</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01756229230551836</v>
+        <v>0.01848450476944281</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0194508822297156</v>
+        <v>0.01961778877688545</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04649564757837093</v>
+        <v>0.0460100752918059</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01343944339685589</v>
+        <v>0.0138774806404773</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01426429195512847</v>
+        <v>0.01295857766481285</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02364351236408292</v>
+        <v>0.02391695776358671</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05370994745935141</v>
+        <v>0.05186778499663124</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03384270556340161</v>
+        <v>0.0339361870923898</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04887614224804203</v>
+        <v>0.04819908429273272</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05132268963076159</v>
+        <v>0.04864524673841975</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0817153095843927</v>
+        <v>0.0834401918549721</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0220884795296066</v>
+        <v>0.02235622928750757</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03107208894968404</v>
+        <v>0.03192332646447622</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03540083600314012</v>
+        <v>0.03540404987276299</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06660552698391227</v>
+        <v>0.06543433178638437</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001014532064311122</v>
+        <v>0.0009990787668875763</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00201589021574277</v>
+        <v>0.00199923694981616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001479237635167034</v>
+        <v>0.001514728543574469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00554566801768514</v>
+        <v>0.005602562091238415</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008062452361250442</v>
+        <v>0.008132637443387953</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01532998602960563</v>
+        <v>0.01527714851991247</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01466089075281773</v>
+        <v>0.01448353739204822</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03137726779318287</v>
+        <v>0.03228413855889584</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004815182169878604</v>
+        <v>0.005154868084712454</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009005867474938986</v>
+        <v>0.008807747754173615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008881210215932345</v>
+        <v>0.008905110725009924</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01978181183014241</v>
+        <v>0.01945081492535794</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.006181515869395683</v>
+        <v>0.005870961735079626</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007821449580851004</v>
+        <v>0.007607358789433202</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.007782809984313759</v>
+        <v>0.007102484808296019</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0135401320340376</v>
+        <v>0.01321726500935028</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0194576685860689</v>
+        <v>0.01945916801155442</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02926531165264563</v>
+        <v>0.02934352122569912</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02765648748512045</v>
+        <v>0.02730001693289696</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04660516782645469</v>
+        <v>0.04780252648607229</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01124719581920789</v>
+        <v>0.01099334642491161</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01675672480725223</v>
+        <v>0.01637549768054647</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01569615077806823</v>
+        <v>0.01601957845751773</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02841662268540017</v>
+        <v>0.02828270543593827</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.01948125060298977</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.03872827509285546</v>
+        <v>0.03872827509285545</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.00840578907732484</v>
@@ -969,7 +969,7 @@
         <v>0.01068808471693346</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02109190853761006</v>
+        <v>0.02109190853761005</v>
       </c>
     </row>
     <row r="11">
@@ -989,31 +989,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0008284955356178149</v>
+        <v>0.0008100891262153606</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004357300048161199</v>
+        <v>0.004464692540735146</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01106118410179514</v>
+        <v>0.01097330994858839</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01037743606978395</v>
+        <v>0.01042149254287121</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02750895732986744</v>
+        <v>0.02756644912775172</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004153004090157688</v>
+        <v>0.003682329258558522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.00630745445257795</v>
+        <v>0.00635304411579011</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00542230564748361</v>
+        <v>0.005256896029870103</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01489966301537206</v>
+        <v>0.01541579379714241</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01990236884662729</v>
+        <v>0.0204604823822888</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01071314803677207</v>
+        <v>0.01379631580370253</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.009329159527055325</v>
+        <v>0.009111103814653486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.009017053590823226</v>
+        <v>0.008490509532016246</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02619689206702764</v>
+        <v>0.02828884345220037</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04095560032509563</v>
+        <v>0.04068082268643636</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03656109172596119</v>
+        <v>0.03559198151657243</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05367731524570678</v>
+        <v>0.05185316306655653</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01794627216000165</v>
+        <v>0.01782519469244778</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0212997985154086</v>
+        <v>0.02160031946193031</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0186861667649698</v>
+        <v>0.01916976649816051</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02863346671165303</v>
+        <v>0.02882836336816741</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01533637640880302</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02920736109782944</v>
+        <v>0.02920736109782945</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002268351721529086</v>
+        <v>0.002339409471686419</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002903221399644314</v>
+        <v>0.002633891659155512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003481185571373168</v>
+        <v>0.00340602262356659</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009207764464807859</v>
+        <v>0.009179129462625245</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01303919915510766</v>
+        <v>0.01326929291945971</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02214810083525558</v>
+        <v>0.02227954179832045</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01992422040619081</v>
+        <v>0.0194478079108514</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03970568457650378</v>
+        <v>0.03981503906857121</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008196931786894681</v>
+        <v>0.008155503519834689</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0132234622273354</v>
+        <v>0.01316267613426809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01273053284681209</v>
+        <v>0.01247004094672605</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02614283027443213</v>
+        <v>0.02596273824138817</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.007055784477338089</v>
+        <v>0.007028167501558786</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.00777682956310428</v>
+        <v>0.006925185689301875</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.009327761137844406</v>
+        <v>0.008666206009907869</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01573775968521197</v>
+        <v>0.01600655272173074</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02204848391161074</v>
+        <v>0.02208654957310167</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03347447304126776</v>
+        <v>0.03273977755138589</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03084869006567667</v>
+        <v>0.03013205718988275</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05187789211499919</v>
+        <v>0.0514120034115452</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01349864006524869</v>
+        <v>0.0133577148242824</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01919594993678273</v>
+        <v>0.01967033721439591</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01849623302844508</v>
+        <v>0.01842614454363629</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03297019648658414</v>
+        <v>0.03276649933579613</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2663</v>
+        <v>2542</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2177</v>
+        <v>2146</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4737</v>
+        <v>5576</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14273</v>
+        <v>14641</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21346</v>
+        <v>21439</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>37501</v>
+        <v>36768</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25466</v>
+        <v>24835</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>44297</v>
+        <v>45103</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>27340</v>
+        <v>26989</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>40612</v>
+        <v>42744</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>34020</v>
+        <v>34312</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>64884</v>
+        <v>64206</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13866</v>
+        <v>14318</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13903</v>
+        <v>12630</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17835</v>
+        <v>18042</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30946</v>
+        <v>29885</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>44507</v>
+        <v>44630</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>65386</v>
+        <v>64481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>51049</v>
+        <v>48385</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>66950</v>
+        <v>68363</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51838</v>
+        <v>52466</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>71852</v>
+        <v>73821</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>61916</v>
+        <v>61922</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>92946</v>
+        <v>91312</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1718</v>
+        <v>1692</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3959</v>
+        <v>3926</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3071</v>
+        <v>3145</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12352</v>
+        <v>12479</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12801</v>
+        <v>12912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26882</v>
+        <v>26789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>29150</v>
+        <v>28798</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>68021</v>
+        <v>69987</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15799</v>
+        <v>16914</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33479</v>
+        <v>32743</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>36099</v>
+        <v>36196</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>86945</v>
+        <v>85491</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10468</v>
+        <v>9942</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15361</v>
+        <v>14941</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16160</v>
+        <v>14747</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30159</v>
+        <v>29440</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30892</v>
+        <v>30895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>51318</v>
+        <v>51455</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>54989</v>
+        <v>54281</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>101033</v>
+        <v>103629</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>36903</v>
+        <v>36070</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>62293</v>
+        <v>60876</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>63800</v>
+        <v>65115</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>124897</v>
+        <v>124309</v>
       </c>
     </row>
     <row r="12">
@@ -1832,31 +1832,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2076</v>
+        <v>2127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5073</v>
+        <v>5033</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5699</v>
+        <v>5723</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20216</v>
+        <v>20258</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4269</v>
+        <v>3785</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5928</v>
+        <v>5971</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5943</v>
+        <v>5762</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>21552</v>
+        <v>22298</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10974</v>
+        <v>11282</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5155</v>
+        <v>6639</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5102</v>
+        <v>4983</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6416</v>
+        <v>6042</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12481</v>
+        <v>13477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18784</v>
+        <v>18657</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20077</v>
+        <v>19545</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>39446</v>
+        <v>38106</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18446</v>
+        <v>18321</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20018</v>
+        <v>20300</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>20481</v>
+        <v>21011</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>41417</v>
+        <v>41699</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7432</v>
+        <v>7665</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9928</v>
+        <v>9007</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11758</v>
+        <v>11504</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>32366</v>
+        <v>32266</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>44062</v>
+        <v>44840</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>78625</v>
+        <v>79092</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>70374</v>
+        <v>68692</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>147786</v>
+        <v>148193</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>54557</v>
+        <v>54281</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>92164</v>
+        <v>91741</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>87964</v>
+        <v>86164</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>189200</v>
+        <v>187896</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23119</v>
+        <v>23028</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26595</v>
+        <v>23683</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31506</v>
+        <v>29271</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>55320</v>
+        <v>56265</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>74506</v>
+        <v>74635</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>118833</v>
+        <v>116225</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>108961</v>
+        <v>106429</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>193092</v>
+        <v>191357</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>89843</v>
+        <v>88905</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>133791</v>
+        <v>137097</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>127804</v>
+        <v>127319</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>238610</v>
+        <v>237136</v>
       </c>
     </row>
     <row r="20">
